--- a/experiment/quadratic/ex9_2_4/compare/Alpha-Zero/ex9_2_4_Alpha-Zero.xlsx
+++ b/experiment/quadratic/ex9_2_4/compare/Alpha-Zero/ex9_2_4_Alpha-Zero.xlsx
@@ -485,13 +485,13 @@
         <v>43.803750000000015</v>
       </c>
       <c r="E2">
-        <v>0.00194418</v>
+        <v>0.002620879</v>
       </c>
       <c r="F2">
-        <v>0.01276992</v>
+        <v>0.007770369</v>
       </c>
       <c r="G2">
-        <v>0.0025372426639552617</v>
+        <v>0.0032146947907276237</v>
       </c>
       <c r="H2">
         <v>2025</v>
@@ -523,13 +523,13 @@
         <v>43.80374980142052</v>
       </c>
       <c r="E3">
-        <v>0.00278091</v>
+        <v>0.003648202</v>
       </c>
       <c r="F3">
-        <v>0.00832212</v>
+        <v>0.00880546</v>
       </c>
       <c r="G3">
-        <v>0.003668161542983101</v>
+        <v>0.004554985538742023</v>
       </c>
       <c r="H3">
         <v>4045</v>
